--- a/BestWish/file/massage.xlsx
+++ b/BestWish/file/massage.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Code\Python项目\封装exe专用文件夹\BestWish\file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\库\文档\GitHub\ToOurTeacher\BestWish\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA14610C-F50F-4E28-8840-4BECC8C26116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{14AD3E0D-E1A5-403B-87DD-BEC31A1AA697}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="492" windowWidth="21168" windowHeight="11424" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>是否显示</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,8 +35,62 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>老师您辛苦了！
-感谢您的辛勤付出！</t>
+    <t>显示第几项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>演示秋鸿楷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>窗口大小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1030x600+100+100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亲爱的老师，感谢您三年来的悉心叮咛与谆谆教导
+……
+紫藤蔓蔓，常青巍巍，
+让我们满怀深情，
+再次对您说一声——谢谢您，老师！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老师：
+  不知道看到这段文字的您心情是如何。
+  ……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XXX老师：
+  三年时间飞逝，转眼间，我们也到了离别的这一天。
+  ……  
+  老师，今天，我们都要去往更远的地方
+  离别之前，祝您万事顺意，平安喜乐
+  老师，江湖再见</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -47,7 +101,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -60,6 +114,51 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="48"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="72"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FFFFC000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FFFFC000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -83,7 +182,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -92,6 +191,33 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -374,31 +500,100 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="22.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="138.77734375" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="9"/>
+    <col min="3" max="3" width="143.5546875" style="10" customWidth="1"/>
+    <col min="4" max="4" width="22.21875" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="6" max="6" width="35.21875" customWidth="1"/>
+    <col min="7" max="7" width="45" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" ht="240.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="240.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="9">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="305.39999999999998" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="9">
+        <v>1</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="240.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="9">
         <v>2</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="240.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="240.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="240.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="9">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
